--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N2">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O2">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P2">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q2">
-        <v>29.61178935638977</v>
+        <v>51.31061731517155</v>
       </c>
       <c r="R2">
-        <v>266.506104207508</v>
+        <v>461.7955558365439</v>
       </c>
       <c r="S2">
-        <v>0.003969341168455897</v>
+        <v>0.01415402563836636</v>
       </c>
       <c r="T2">
-        <v>0.003969341168455898</v>
+        <v>0.01415402563836636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.280679</v>
       </c>
       <c r="O3">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P3">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q3">
-        <v>11.25454106110711</v>
+        <v>14.77051134486578</v>
       </c>
       <c r="R3">
-        <v>101.290869549964</v>
+        <v>132.934602103792</v>
       </c>
       <c r="S3">
-        <v>0.001508625926933051</v>
+        <v>0.004074443208953477</v>
       </c>
       <c r="T3">
-        <v>0.001508625926933051</v>
+        <v>0.004074443208953477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N4">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O4">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P4">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q4">
-        <v>115.9862503147844</v>
+        <v>113.6877496492515</v>
       </c>
       <c r="R4">
-        <v>1043.87625283306</v>
+        <v>1023.189746843264</v>
       </c>
       <c r="S4">
-        <v>0.01554748998138337</v>
+        <v>0.0313607476873581</v>
       </c>
       <c r="T4">
-        <v>0.01554748998138337</v>
+        <v>0.0313607476873581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H5">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I5">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J5">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N5">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q5">
-        <v>7.220240002701776</v>
+        <v>9.166913191676445</v>
       </c>
       <c r="R5">
-        <v>64.98216002431599</v>
+        <v>82.50221872508799</v>
       </c>
       <c r="S5">
-        <v>0.0009678441091123045</v>
+        <v>0.002528691548236412</v>
       </c>
       <c r="T5">
-        <v>0.0009678441091123048</v>
+        <v>0.002528691548236412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H6">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I6">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J6">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N6">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O6">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P6">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q6">
-        <v>18.62250231469244</v>
+        <v>19.99722069377778</v>
       </c>
       <c r="R6">
-        <v>167.602520832232</v>
+        <v>179.974986244</v>
       </c>
       <c r="S6">
-        <v>0.002496271475111765</v>
+        <v>0.00551623015285983</v>
       </c>
       <c r="T6">
-        <v>0.002496271475111765</v>
+        <v>0.005516230152859829</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H7">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I7">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J7">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N7">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q7">
-        <v>107.4056325435653</v>
+        <v>101.423253612384</v>
       </c>
       <c r="R7">
-        <v>966.6506928920879</v>
+        <v>912.809282511456</v>
       </c>
       <c r="S7">
-        <v>0.01439729270825793</v>
+        <v>0.0279775884031657</v>
       </c>
       <c r="T7">
-        <v>0.01439729270825794</v>
+        <v>0.0279775884031657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J8">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N8">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O8">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P8">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q8">
-        <v>87.19722404824566</v>
+        <v>115.1270845901573</v>
       </c>
       <c r="R8">
-        <v>784.775016434211</v>
+        <v>1036.143761311416</v>
       </c>
       <c r="S8">
-        <v>0.01168843689329729</v>
+        <v>0.03175778800224344</v>
       </c>
       <c r="T8">
-        <v>0.01168843689329729</v>
+        <v>0.03175778800224344</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J9">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>27.280679</v>
       </c>
       <c r="O9">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P9">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q9">
         <v>33.14101443362367</v>
@@ -1013,10 +1013,10 @@
         <v>298.269129902613</v>
       </c>
       <c r="S9">
-        <v>0.004442419584056222</v>
+        <v>0.009141943568788082</v>
       </c>
       <c r="T9">
-        <v>0.004442419584056223</v>
+        <v>0.009141943568788084</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J10">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N10">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O10">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P10">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q10">
-        <v>341.5423138903217</v>
+        <v>255.0844222032773</v>
       </c>
       <c r="R10">
-        <v>3073.880825012895</v>
+        <v>2295.759799829496</v>
       </c>
       <c r="S10">
-        <v>0.04578237238480158</v>
+        <v>0.07036499735787646</v>
       </c>
       <c r="T10">
-        <v>0.04578237238480159</v>
+        <v>0.07036499735787649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J11">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N11">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q11">
-        <v>21.26129149509967</v>
+        <v>20.56806262856467</v>
       </c>
       <c r="R11">
-        <v>191.351623455897</v>
+        <v>185.112563657082</v>
       </c>
       <c r="S11">
-        <v>0.002849990542966954</v>
+        <v>0.005673696809922233</v>
       </c>
       <c r="T11">
-        <v>0.002849990542966954</v>
+        <v>0.005673696809922234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J12">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N12">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O12">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P12">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q12">
-        <v>54.83729764283266</v>
+        <v>44.86833015941667</v>
       </c>
       <c r="R12">
-        <v>493.535678785494</v>
+        <v>403.81497143475</v>
       </c>
       <c r="S12">
-        <v>0.007350719015350412</v>
+        <v>0.01237692174947373</v>
       </c>
       <c r="T12">
-        <v>0.007350719015350414</v>
+        <v>0.01237692174947373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J13">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N13">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q13">
-        <v>316.275146098994</v>
+        <v>227.566225257426</v>
       </c>
       <c r="R13">
-        <v>2846.476314890946</v>
+        <v>2048.096027316834</v>
       </c>
       <c r="S13">
-        <v>0.04239541024896706</v>
+        <v>0.06277410710019818</v>
       </c>
       <c r="T13">
-        <v>0.04239541024896706</v>
+        <v>0.06277410710019819</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H14">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J14">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N14">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O14">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P14">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q14">
-        <v>39.99226828033677</v>
+        <v>86.60550471601776</v>
       </c>
       <c r="R14">
-        <v>359.930414523031</v>
+        <v>779.4495424441599</v>
       </c>
       <c r="S14">
-        <v>0.005360802584218688</v>
+        <v>0.02389011472313205</v>
       </c>
       <c r="T14">
-        <v>0.005360802584218688</v>
+        <v>0.02389011472313205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H15">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J15">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.280679</v>
       </c>
       <c r="O15">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P15">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q15">
-        <v>15.19984557740811</v>
+        <v>24.93066068720888</v>
       </c>
       <c r="R15">
-        <v>136.798610196673</v>
+        <v>224.37594618488</v>
       </c>
       <c r="S15">
-        <v>0.002037478116517782</v>
+        <v>0.006877118791627368</v>
       </c>
       <c r="T15">
-        <v>0.002037478116517782</v>
+        <v>0.006877118791627369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H16">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J16">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N16">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O16">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P16">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q16">
-        <v>156.6454895241995</v>
+        <v>191.8898164472178</v>
       </c>
       <c r="R16">
-        <v>1409.809405717795</v>
+        <v>1727.00834802496</v>
       </c>
       <c r="S16">
-        <v>0.02099769733392223</v>
+        <v>0.0529327753952448</v>
       </c>
       <c r="T16">
-        <v>0.02099769733392223</v>
+        <v>0.05293277539524482</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H17">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J17">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N17">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q17">
-        <v>9.751311268670777</v>
+        <v>15.47253151870222</v>
       </c>
       <c r="R17">
-        <v>87.76180141803701</v>
+        <v>139.25278366832</v>
       </c>
       <c r="S17">
-        <v>0.001307124024128269</v>
+        <v>0.004268095362426856</v>
       </c>
       <c r="T17">
-        <v>0.001307124024128269</v>
+        <v>0.004268095362426857</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H18">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J18">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N18">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O18">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P18">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q18">
-        <v>25.15066211153044</v>
+        <v>33.75265162888888</v>
       </c>
       <c r="R18">
-        <v>226.355959003774</v>
+        <v>303.77386466</v>
       </c>
       <c r="S18">
-        <v>0.003371345018421847</v>
+        <v>0.009310663591975226</v>
       </c>
       <c r="T18">
-        <v>0.003371345018421848</v>
+        <v>0.009310663591975226</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.671495666666667</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H19">
-        <v>5.014487000000001</v>
+        <v>8.22472</v>
       </c>
       <c r="I19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J19">
-        <v>0.05251874291389196</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N19">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q19">
-        <v>145.0569170206074</v>
+        <v>171.18897664176</v>
       </c>
       <c r="R19">
-        <v>1305.512253185466</v>
+        <v>1540.70078977584</v>
       </c>
       <c r="S19">
-        <v>0.01944429583668314</v>
+        <v>0.04722245202216137</v>
       </c>
       <c r="T19">
-        <v>0.01944429583668314</v>
+        <v>0.04722245202216137</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H20">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J20">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N20">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O20">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P20">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q20">
-        <v>438.5311966705987</v>
+        <v>74.05480789885333</v>
       </c>
       <c r="R20">
-        <v>3946.780770035388</v>
+        <v>666.49327108968</v>
       </c>
       <c r="S20">
-        <v>0.0587833417172821</v>
+        <v>0.02042800699914287</v>
       </c>
       <c r="T20">
-        <v>0.05878334171728211</v>
+        <v>0.02042800699914287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H21">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J21">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>27.280679</v>
       </c>
       <c r="O21">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P21">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q21">
-        <v>166.6723783593541</v>
+        <v>21.31775911977666</v>
       </c>
       <c r="R21">
-        <v>1500.051405234187</v>
+        <v>191.85983207799</v>
       </c>
       <c r="S21">
-        <v>0.02234176142156986</v>
+        <v>0.005880500467972755</v>
       </c>
       <c r="T21">
-        <v>0.02234176142156986</v>
+        <v>0.005880500467972755</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H22">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J22">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N22">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O22">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P22">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q22">
-        <v>1717.680364928789</v>
+        <v>164.0815273964533</v>
       </c>
       <c r="R22">
-        <v>15459.12328435911</v>
+        <v>1476.73374656808</v>
       </c>
       <c r="S22">
-        <v>0.2302481388308593</v>
+        <v>0.04526186327649229</v>
       </c>
       <c r="T22">
-        <v>0.2302481388308593</v>
+        <v>0.0452618632764923</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H23">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J23">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N23">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q23">
-        <v>106.9270232381448</v>
+        <v>13.23028314520667</v>
       </c>
       <c r="R23">
-        <v>962.3432091433029</v>
+        <v>119.07254830686</v>
       </c>
       <c r="S23">
-        <v>0.01433313705738701</v>
+        <v>0.003649571504662678</v>
       </c>
       <c r="T23">
-        <v>0.01433313705738701</v>
+        <v>0.003649571504662678</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H24">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J24">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N24">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O24">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P24">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q24">
-        <v>275.7870565258784</v>
+        <v>28.86128474916666</v>
       </c>
       <c r="R24">
-        <v>2482.083508732906</v>
+        <v>259.7515627425</v>
       </c>
       <c r="S24">
-        <v>0.03696814481625457</v>
+        <v>0.007961380814943159</v>
       </c>
       <c r="T24">
-        <v>0.03696814481625458</v>
+        <v>0.007961380814943159</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.32861766666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H25">
-        <v>54.985853</v>
+        <v>7.03281</v>
       </c>
       <c r="I25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J25">
-        <v>0.5758889947482273</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N25">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q25">
-        <v>1590.607038352739</v>
+        <v>146.38061196198</v>
       </c>
       <c r="R25">
-        <v>14315.46334517465</v>
+        <v>1317.42550765782</v>
       </c>
       <c r="S25">
-        <v>0.2132144709048744</v>
+        <v>0.0403790685647629</v>
       </c>
       <c r="T25">
-        <v>0.2132144709048744</v>
+        <v>0.04037906856476291</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H26">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J26">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N26">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O26">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P26">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q26">
-        <v>110.9650069264391</v>
+        <v>135.2840358598266</v>
       </c>
       <c r="R26">
-        <v>998.6850623379519</v>
+        <v>1217.55632273844</v>
       </c>
       <c r="S26">
-        <v>0.01487441251692088</v>
+        <v>0.03731807980909806</v>
       </c>
       <c r="T26">
-        <v>0.01487441251692088</v>
+        <v>0.03731807980909806</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H27">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J27">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>27.280679</v>
       </c>
       <c r="O27">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P27">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q27">
-        <v>42.17442626546844</v>
+        <v>38.94348754708832</v>
       </c>
       <c r="R27">
-        <v>379.569836389216</v>
+        <v>350.4913879237949</v>
       </c>
       <c r="S27">
-        <v>0.005653312078400564</v>
+        <v>0.01074255485571615</v>
       </c>
       <c r="T27">
-        <v>0.005653312078400565</v>
+        <v>0.01074255485571615</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H28">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J28">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N28">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O28">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P28">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q28">
-        <v>434.6382082707378</v>
+        <v>299.7457135606266</v>
       </c>
       <c r="R28">
-        <v>3911.74387443664</v>
+        <v>2697.71142204564</v>
       </c>
       <c r="S28">
-        <v>0.05826150229252088</v>
+        <v>0.08268480748667725</v>
       </c>
       <c r="T28">
-        <v>0.05826150229252088</v>
+        <v>0.08268480748667728</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H29">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J29">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N29">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O29">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P29">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q29">
-        <v>27.05658791056711</v>
+        <v>24.16920859340333</v>
       </c>
       <c r="R29">
-        <v>243.509291195104</v>
+        <v>217.52287734063</v>
       </c>
       <c r="S29">
-        <v>0.003626826699960486</v>
+        <v>0.00666707235246818</v>
       </c>
       <c r="T29">
-        <v>0.003626826699960486</v>
+        <v>0.006667072352468181</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H30">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J30">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N30">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O30">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P30">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q30">
-        <v>69.78457375428977</v>
+        <v>52.72407277458332</v>
       </c>
       <c r="R30">
-        <v>628.0611637886079</v>
+        <v>474.5166549712499</v>
       </c>
       <c r="S30">
-        <v>0.009354341211611961</v>
+        <v>0.01454392710239119</v>
       </c>
       <c r="T30">
-        <v>0.009354341211611963</v>
+        <v>0.01454392710239119</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.637834666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H31">
-        <v>13.913504</v>
+        <v>12.847605</v>
       </c>
       <c r="I31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J31">
-        <v>0.1457217337700561</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N31">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O31">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P31">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q31">
-        <v>402.4838423539413</v>
+        <v>267.40951087059</v>
       </c>
       <c r="R31">
-        <v>3622.354581185472</v>
+        <v>2406.68559783531</v>
       </c>
       <c r="S31">
-        <v>0.0539513389706413</v>
+        <v>0.07376487110955515</v>
       </c>
       <c r="T31">
-        <v>0.0539513389706413</v>
+        <v>0.07376487110955517</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H32">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J32">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N32">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O32">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P32">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q32">
-        <v>55.18814939715243</v>
+        <v>136.9589433084862</v>
       </c>
       <c r="R32">
-        <v>496.6933445743719</v>
+        <v>1232.630489776376</v>
       </c>
       <c r="S32">
-        <v>0.007397749280751982</v>
+        <v>0.03778010276283884</v>
       </c>
       <c r="T32">
-        <v>0.007397749280751983</v>
+        <v>0.03778010276283884</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H33">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J33">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>27.280679</v>
       </c>
       <c r="O33">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P33">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q33">
-        <v>20.97533809934177</v>
+        <v>39.42563414298811</v>
       </c>
       <c r="R33">
-        <v>188.778042894076</v>
+        <v>354.830707286893</v>
       </c>
       <c r="S33">
-        <v>0.002811659641298675</v>
+        <v>0.01087555491763119</v>
       </c>
       <c r="T33">
-        <v>0.002811659641298675</v>
+        <v>0.01087555491763119</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H34">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J34">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N34">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O34">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P34">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q34">
-        <v>216.1661503581711</v>
+        <v>303.4567673088062</v>
       </c>
       <c r="R34">
-        <v>1945.49535322354</v>
+        <v>2731.110905779256</v>
       </c>
       <c r="S34">
-        <v>0.02897620233335088</v>
+        <v>0.08370850107380468</v>
       </c>
       <c r="T34">
-        <v>0.02897620233335088</v>
+        <v>0.08370850107380469</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H35">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J35">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N35">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O35">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P35">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q35">
-        <v>13.45652162916044</v>
+        <v>24.46843966855578</v>
       </c>
       <c r="R35">
-        <v>121.108694662444</v>
+        <v>220.215957017002</v>
       </c>
       <c r="S35">
-        <v>0.001803792558564785</v>
+        <v>0.006749615197031686</v>
       </c>
       <c r="T35">
-        <v>0.001803792558564785</v>
+        <v>0.006749615197031686</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H36">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J36">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N36">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O36">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P36">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q36">
-        <v>34.7071711041431</v>
+        <v>53.37683229386111</v>
       </c>
       <c r="R36">
-        <v>312.3645399372879</v>
+        <v>480.39149064475</v>
       </c>
       <c r="S36">
-        <v>0.004652356581571813</v>
+        <v>0.01472399071212706</v>
       </c>
       <c r="T36">
-        <v>0.004652356581571815</v>
+        <v>0.01472399071212706</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>2.306614666666666</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H37">
-        <v>6.919843999999999</v>
+        <v>13.006667</v>
       </c>
       <c r="I37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J37">
-        <v>0.07247431452913082</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N37">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O37">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P37">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q37">
-        <v>200.1742624726213</v>
+        <v>270.720220657986</v>
       </c>
       <c r="R37">
-        <v>1801.568362253592</v>
+        <v>2436.481985921874</v>
       </c>
       <c r="S37">
-        <v>0.02683255413359268</v>
+        <v>0.07467812987867425</v>
       </c>
       <c r="T37">
-        <v>0.02683255413359268</v>
+        <v>0.07467812987867425</v>
       </c>
     </row>
   </sheetData>
